--- a/biology/Botanique/Corydalis_cava/Corydalis_cava.xlsx
+++ b/biology/Botanique/Corydalis_cava/Corydalis_cava.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corydalis cava
 La Corydale creuse (Corydalis cava), également appelée Corydale à tubercule creux ou Fumeterre creuse, est une plante herbacée de la famille des Fumariaceae selon la classification classique, et des Papaveraceae selon la classification phylogénétique (APGIII).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La corydale à bulbe creux se caractérise par ses feuilles bi-tripennatiséquées et ses fleurs généralement roses ou blanches, zygomorphes, horizontales, organisées en grappes terminales dressées. Le fruit est allongé en forme de silique et déhiscent. La plante forme un bulbe creux à sa base.
 Elle préfère les bois calcaires, et fleurit en avril-mai.
@@ -544,7 +558,9 @@
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La corydale creuse et la corydale à bulbe plein  se confondent aisément et se différencient principalement par la forme des bractées. La corydale creuse a des bractées simples alors que la corydale à bulbe plein a des bractées digitées.
 </t>
